--- a/individual_results/avey/159.xlsx
+++ b/individual_results/avey/159.xlsx
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O2" t="n">
         <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2857142857142857</v>
@@ -661,13 +661,13 @@
         <v>0.25</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O3" t="n">
         <v>0.25</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
@@ -726,13 +726,13 @@
         <v>0.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O4" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q4" t="n">
         <v>0.3636363636363636</v>
@@ -791,13 +791,13 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="O5" t="n">
         <v>0.2777777777777778</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="Q5" t="n">
         <v>0.4347826086956521</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02955564204390764</v>
+        <v>0.3279120902703183</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0.3279120902703183</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7913356909966908</v>
+        <v>0.0886669261317229</v>
       </c>
       <c r="O6" t="n">
         <v>0.7026687648649679</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1769128454874627</v>
+        <v>0.1268537126472191</v>
       </c>
       <c r="Q6" t="n">
         <v>0.2509092992350705</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1143,9 +1143,7 @@
         <v>3</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>1</v>
       </c>
